--- a/Financials/Yearly/UN_YR_FIN.xlsx
+++ b/Financials/Yearly/UN_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7AA760-DEE1-407B-9DB3-73B2129D24E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UN" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>63051200</v>
+        <v>57201300</v>
       </c>
       <c r="E8" s="3">
-        <v>61875000</v>
+        <v>60267700</v>
       </c>
       <c r="F8" s="3">
-        <v>62531200</v>
+        <v>59143500</v>
       </c>
       <c r="G8" s="3">
-        <v>56854700</v>
+        <v>59770700</v>
       </c>
       <c r="H8" s="3">
-        <v>58452200</v>
+        <v>54344700</v>
       </c>
       <c r="I8" s="3">
-        <v>60244600</v>
+        <v>55871700</v>
       </c>
       <c r="J8" s="3">
+        <v>57585000</v>
+      </c>
+      <c r="K8" s="3">
         <v>54543400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32052100</v>
+        <v>28802600</v>
       </c>
       <c r="E9" s="3">
-        <v>31672900</v>
+        <v>30637100</v>
       </c>
       <c r="F9" s="3">
-        <v>32221100</v>
+        <v>30274700</v>
       </c>
       <c r="G9" s="3">
-        <v>33320900</v>
+        <v>30798600</v>
       </c>
       <c r="H9" s="3">
-        <v>34116800</v>
+        <v>31849900</v>
       </c>
       <c r="I9" s="3">
-        <v>36039500</v>
+        <v>32610600</v>
       </c>
       <c r="J9" s="3">
+        <v>34448500</v>
+      </c>
+      <c r="K9" s="3">
         <v>32784500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30999100</v>
+        <v>28398700</v>
       </c>
       <c r="E10" s="3">
-        <v>30202100</v>
+        <v>29630600</v>
       </c>
       <c r="F10" s="3">
-        <v>30310100</v>
+        <v>28868800</v>
       </c>
       <c r="G10" s="3">
-        <v>23533700</v>
+        <v>28972000</v>
       </c>
       <c r="H10" s="3">
-        <v>24335400</v>
+        <v>22494800</v>
       </c>
       <c r="I10" s="3">
-        <v>24205100</v>
+        <v>23261100</v>
       </c>
       <c r="J10" s="3">
+        <v>23136600</v>
+      </c>
+      <c r="K10" s="3">
         <v>21758900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +847,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1056400</v>
+        <v>1009800</v>
       </c>
       <c r="E12" s="3">
-        <v>1148000</v>
+        <v>1009800</v>
       </c>
       <c r="F12" s="3">
-        <v>1179700</v>
+        <v>1097300</v>
       </c>
       <c r="G12" s="3">
-        <v>1121000</v>
+        <v>1127600</v>
       </c>
       <c r="H12" s="3">
-        <v>1220800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>1071500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1166900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +904,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>637400</v>
+        <v>-3736200</v>
       </c>
       <c r="E14" s="3">
-        <v>-287600</v>
+        <v>1037800</v>
       </c>
       <c r="F14" s="3">
-        <v>-410800</v>
+        <v>-274900</v>
       </c>
       <c r="G14" s="3">
-        <v>1126900</v>
+        <v>-392700</v>
       </c>
       <c r="H14" s="3">
-        <v>588100</v>
+        <v>1077100</v>
       </c>
       <c r="I14" s="3">
-        <v>-85700</v>
+        <v>562100</v>
       </c>
       <c r="J14" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-169000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +964,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>52654800</v>
+        <v>42964400</v>
       </c>
       <c r="E17" s="3">
-        <v>52718200</v>
+        <v>50758800</v>
       </c>
       <c r="F17" s="3">
-        <v>53710000</v>
+        <v>50390800</v>
       </c>
       <c r="G17" s="3">
-        <v>47487700</v>
+        <v>51338900</v>
       </c>
       <c r="H17" s="3">
-        <v>49628700</v>
+        <v>45391200</v>
       </c>
       <c r="I17" s="3">
-        <v>52055000</v>
+        <v>47437700</v>
       </c>
       <c r="J17" s="3">
+        <v>49756900</v>
+      </c>
+      <c r="K17" s="3">
         <v>47007600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10396400</v>
+        <v>14236900</v>
       </c>
       <c r="E18" s="3">
-        <v>9156900</v>
+        <v>9508900</v>
       </c>
       <c r="F18" s="3">
-        <v>8821200</v>
+        <v>8752600</v>
       </c>
       <c r="G18" s="3">
-        <v>9367000</v>
+        <v>8431800</v>
       </c>
       <c r="H18" s="3">
-        <v>8823500</v>
+        <v>8953500</v>
       </c>
       <c r="I18" s="3">
-        <v>8189700</v>
+        <v>8434000</v>
       </c>
       <c r="J18" s="3">
+        <v>7828100</v>
+      </c>
+      <c r="K18" s="3">
         <v>7535900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1052,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-158500</v>
+        <v>334400</v>
       </c>
       <c r="E20" s="3">
-        <v>281700</v>
+        <v>277100</v>
       </c>
       <c r="F20" s="3">
-        <v>301700</v>
+        <v>269300</v>
       </c>
       <c r="G20" s="3">
-        <v>178400</v>
+        <v>288400</v>
       </c>
       <c r="H20" s="3">
-        <v>110300</v>
+        <v>170500</v>
       </c>
       <c r="I20" s="3">
-        <v>704300</v>
+        <v>105500</v>
       </c>
       <c r="J20" s="3">
+        <v>673200</v>
+      </c>
+      <c r="K20" s="3">
         <v>836900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12044500</v>
+        <v>16536100</v>
       </c>
       <c r="E21" s="3">
-        <v>11158200</v>
+        <v>11515800</v>
       </c>
       <c r="F21" s="3">
-        <v>10732100</v>
+        <v>10668500</v>
       </c>
       <c r="G21" s="3">
-        <v>11227500</v>
+        <v>10260900</v>
       </c>
       <c r="H21" s="3">
-        <v>10285800</v>
+        <v>10734600</v>
       </c>
       <c r="I21" s="3">
-        <v>10302300</v>
+        <v>9834000</v>
       </c>
       <c r="J21" s="3">
+        <v>9849800</v>
+      </c>
+      <c r="K21" s="3">
         <v>9581500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>667900</v>
+        <v>677700</v>
       </c>
       <c r="E22" s="3">
-        <v>671400</v>
+        <v>638400</v>
       </c>
       <c r="F22" s="3">
-        <v>647900</v>
+        <v>641800</v>
       </c>
       <c r="G22" s="3">
-        <v>570500</v>
+        <v>619300</v>
       </c>
       <c r="H22" s="3">
-        <v>583400</v>
+        <v>545300</v>
       </c>
       <c r="I22" s="3">
-        <v>1225500</v>
+        <v>557600</v>
       </c>
       <c r="J22" s="3">
+        <v>1171400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1252500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9570100</v>
+        <v>13893600</v>
       </c>
       <c r="E23" s="3">
-        <v>8767200</v>
+        <v>9147600</v>
       </c>
       <c r="F23" s="3">
-        <v>8474900</v>
+        <v>8380100</v>
       </c>
       <c r="G23" s="3">
-        <v>8975000</v>
+        <v>8100800</v>
       </c>
       <c r="H23" s="3">
-        <v>8350500</v>
+        <v>8578700</v>
       </c>
       <c r="I23" s="3">
-        <v>7668500</v>
+        <v>7981800</v>
       </c>
       <c r="J23" s="3">
+        <v>7330000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7120300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2635200</v>
+        <v>2856600</v>
       </c>
       <c r="E24" s="3">
-        <v>2256100</v>
+        <v>2518900</v>
       </c>
       <c r="F24" s="3">
-        <v>2301800</v>
+        <v>2156500</v>
       </c>
       <c r="G24" s="3">
-        <v>2501400</v>
+        <v>2200200</v>
       </c>
       <c r="H24" s="3">
-        <v>2172700</v>
+        <v>2391000</v>
       </c>
       <c r="I24" s="3">
-        <v>1992000</v>
+        <v>2076800</v>
       </c>
       <c r="J24" s="3">
+        <v>1904000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1848800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6934900</v>
+        <v>11037000</v>
       </c>
       <c r="E26" s="3">
-        <v>6511100</v>
+        <v>6628700</v>
       </c>
       <c r="F26" s="3">
-        <v>6173100</v>
+        <v>6223700</v>
       </c>
       <c r="G26" s="3">
-        <v>6473600</v>
+        <v>5900500</v>
       </c>
       <c r="H26" s="3">
-        <v>6177800</v>
+        <v>6187800</v>
       </c>
       <c r="I26" s="3">
-        <v>5676500</v>
+        <v>5905000</v>
       </c>
       <c r="J26" s="3">
+        <v>5425900</v>
+      </c>
+      <c r="K26" s="3">
         <v>5271600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6426600</v>
+        <v>10566900</v>
       </c>
       <c r="E27" s="3">
-        <v>6085000</v>
+        <v>6142900</v>
       </c>
       <c r="F27" s="3">
-        <v>5762200</v>
+        <v>5816400</v>
       </c>
       <c r="G27" s="3">
-        <v>6069800</v>
+        <v>5507800</v>
       </c>
       <c r="H27" s="3">
-        <v>5683600</v>
+        <v>5801800</v>
       </c>
       <c r="I27" s="3">
-        <v>5127200</v>
+        <v>5432700</v>
       </c>
       <c r="J27" s="3">
+        <v>4900900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4836100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,17 +1319,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>678500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>-32500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>648500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1349,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>158500</v>
+        <v>-334400</v>
       </c>
       <c r="E32" s="3">
-        <v>-281700</v>
+        <v>-277100</v>
       </c>
       <c r="F32" s="3">
-        <v>-301700</v>
+        <v>-269300</v>
       </c>
       <c r="G32" s="3">
-        <v>-178400</v>
+        <v>-288400</v>
       </c>
       <c r="H32" s="3">
-        <v>-110300</v>
+        <v>-170500</v>
       </c>
       <c r="I32" s="3">
-        <v>-704300</v>
+        <v>-105500</v>
       </c>
       <c r="J32" s="3">
+        <v>-673200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-836900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7105100</v>
+        <v>10534400</v>
       </c>
       <c r="E33" s="3">
-        <v>6085000</v>
+        <v>6791400</v>
       </c>
       <c r="F33" s="3">
-        <v>5762200</v>
+        <v>5816400</v>
       </c>
       <c r="G33" s="3">
-        <v>6069800</v>
+        <v>5507800</v>
       </c>
       <c r="H33" s="3">
-        <v>5683600</v>
+        <v>5801800</v>
       </c>
       <c r="I33" s="3">
-        <v>5127200</v>
+        <v>5432700</v>
       </c>
       <c r="J33" s="3">
+        <v>4900900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4836100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7105100</v>
+        <v>10534400</v>
       </c>
       <c r="E35" s="3">
-        <v>6085000</v>
+        <v>6791400</v>
       </c>
       <c r="F35" s="3">
-        <v>5762200</v>
+        <v>5816400</v>
       </c>
       <c r="G35" s="3">
-        <v>6069800</v>
+        <v>5507800</v>
       </c>
       <c r="H35" s="3">
-        <v>5683600</v>
+        <v>5801800</v>
       </c>
       <c r="I35" s="3">
-        <v>5127200</v>
+        <v>5432700</v>
       </c>
       <c r="J35" s="3">
+        <v>4900900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4836100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1595,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3893500</v>
+        <v>3624000</v>
       </c>
       <c r="E41" s="3">
-        <v>3969800</v>
+        <v>3721600</v>
       </c>
       <c r="F41" s="3">
-        <v>2702100</v>
+        <v>3794600</v>
       </c>
       <c r="G41" s="3">
-        <v>2524900</v>
+        <v>2582800</v>
       </c>
       <c r="H41" s="3">
-        <v>2682200</v>
+        <v>2413400</v>
       </c>
       <c r="I41" s="3">
-        <v>1138600</v>
+        <v>2563700</v>
       </c>
       <c r="J41" s="3">
+        <v>1088300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1456700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>705500</v>
+        <v>1006400</v>
       </c>
       <c r="E42" s="3">
-        <v>658500</v>
+        <v>674300</v>
       </c>
       <c r="F42" s="3">
-        <v>840400</v>
+        <v>629400</v>
       </c>
       <c r="G42" s="3">
-        <v>585700</v>
+        <v>803300</v>
       </c>
       <c r="H42" s="3">
-        <v>1023600</v>
+        <v>559900</v>
       </c>
       <c r="I42" s="3">
-        <v>2223200</v>
+        <v>978400</v>
       </c>
       <c r="J42" s="3">
+        <v>2125000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3246800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6167200</v>
+        <v>6692700</v>
       </c>
       <c r="E43" s="3">
-        <v>5548600</v>
+        <v>5894900</v>
       </c>
       <c r="F43" s="3">
-        <v>4009700</v>
+        <v>5303600</v>
       </c>
       <c r="G43" s="3">
-        <v>5311500</v>
+        <v>3832700</v>
       </c>
       <c r="H43" s="3">
-        <v>4746900</v>
+        <v>5077000</v>
       </c>
       <c r="I43" s="3">
-        <v>4564900</v>
+        <v>4537300</v>
       </c>
       <c r="J43" s="3">
+        <v>4363400</v>
+      </c>
+      <c r="K43" s="3">
         <v>5695300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4650600</v>
+        <v>4825700</v>
       </c>
       <c r="E44" s="3">
-        <v>5021600</v>
+        <v>4445300</v>
       </c>
       <c r="F44" s="3">
-        <v>5088500</v>
+        <v>4799900</v>
       </c>
       <c r="G44" s="3">
-        <v>4892400</v>
+        <v>4863800</v>
       </c>
       <c r="H44" s="3">
-        <v>4621300</v>
+        <v>4676500</v>
       </c>
       <c r="I44" s="3">
-        <v>5207000</v>
+        <v>4417300</v>
       </c>
       <c r="J44" s="3">
+        <v>4977100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5400700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4518000</v>
+        <v>1220700</v>
       </c>
       <c r="E45" s="3">
-        <v>1098700</v>
+        <v>4318500</v>
       </c>
       <c r="F45" s="3">
-        <v>2250200</v>
+        <v>1050200</v>
       </c>
       <c r="G45" s="3">
-        <v>1178500</v>
+        <v>2150900</v>
       </c>
       <c r="H45" s="3">
-        <v>1155000</v>
+        <v>1126500</v>
       </c>
       <c r="I45" s="3">
-        <v>1124500</v>
+        <v>1104000</v>
       </c>
       <c r="J45" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="K45" s="3">
         <v>975400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19934800</v>
+        <v>17369500</v>
       </c>
       <c r="E46" s="3">
-        <v>16297200</v>
+        <v>19054800</v>
       </c>
       <c r="F46" s="3">
-        <v>14891000</v>
+        <v>15577700</v>
       </c>
       <c r="G46" s="3">
-        <v>14493000</v>
+        <v>14233600</v>
       </c>
       <c r="H46" s="3">
-        <v>14228900</v>
+        <v>13853200</v>
       </c>
       <c r="I46" s="3">
-        <v>14258300</v>
+        <v>13600800</v>
       </c>
       <c r="J46" s="3">
+        <v>13628800</v>
+      </c>
+      <c r="K46" s="3">
         <v>16774900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1328800</v>
+        <v>1294800</v>
       </c>
       <c r="E47" s="3">
-        <v>1386300</v>
+        <v>1233100</v>
       </c>
       <c r="F47" s="3">
-        <v>1320500</v>
+        <v>1503500</v>
       </c>
       <c r="G47" s="3">
-        <v>1260700</v>
+        <v>1490000</v>
       </c>
       <c r="H47" s="3">
-        <v>947300</v>
+        <v>1492200</v>
       </c>
       <c r="I47" s="3">
-        <v>927300</v>
+        <v>1160100</v>
       </c>
       <c r="J47" s="3">
+        <v>886400</v>
+      </c>
+      <c r="K47" s="3">
         <v>871000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12240500</v>
+        <v>11629400</v>
       </c>
       <c r="E48" s="3">
-        <v>13761700</v>
+        <v>11700100</v>
       </c>
       <c r="F48" s="3">
-        <v>13036300</v>
+        <v>13154200</v>
       </c>
       <c r="G48" s="3">
-        <v>12341400</v>
+        <v>12460800</v>
       </c>
       <c r="H48" s="3">
-        <v>11008000</v>
+        <v>11796600</v>
       </c>
       <c r="I48" s="3">
-        <v>11120700</v>
+        <v>10522000</v>
       </c>
       <c r="J48" s="3">
+        <v>10629700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10336600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33337400</v>
+        <v>33090900</v>
       </c>
       <c r="E49" s="3">
-        <v>32201100</v>
+        <v>31865600</v>
       </c>
       <c r="F49" s="3">
-        <v>29414500</v>
+        <v>30779600</v>
       </c>
       <c r="G49" s="3">
-        <v>26028100</v>
+        <v>28115900</v>
       </c>
       <c r="H49" s="3">
-        <v>24537300</v>
+        <v>24879000</v>
       </c>
       <c r="I49" s="3">
-        <v>25492800</v>
+        <v>23454100</v>
       </c>
       <c r="J49" s="3">
+        <v>24367400</v>
+      </c>
+      <c r="K49" s="3">
         <v>25721700</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3921700</v>
+        <v>3324500</v>
       </c>
       <c r="E52" s="3">
-        <v>2590600</v>
+        <v>3785600</v>
       </c>
       <c r="F52" s="3">
-        <v>2725600</v>
+        <v>2297800</v>
       </c>
       <c r="G52" s="3">
-        <v>2251400</v>
+        <v>2377500</v>
       </c>
       <c r="H52" s="3">
-        <v>2702100</v>
+        <v>1864700</v>
       </c>
       <c r="I52" s="3">
-        <v>2391100</v>
+        <v>2328100</v>
       </c>
       <c r="J52" s="3">
+        <v>2285500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2065900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70763100</v>
+        <v>66709000</v>
       </c>
       <c r="E54" s="3">
-        <v>66236900</v>
+        <v>67639200</v>
       </c>
       <c r="F54" s="3">
-        <v>61387900</v>
+        <v>63312800</v>
       </c>
       <c r="G54" s="3">
-        <v>56374600</v>
+        <v>58677800</v>
       </c>
       <c r="H54" s="3">
-        <v>53423600</v>
+        <v>53885800</v>
       </c>
       <c r="I54" s="3">
-        <v>54190100</v>
+        <v>51065100</v>
       </c>
       <c r="J54" s="3">
+        <v>51797800</v>
+      </c>
+      <c r="K54" s="3">
         <v>55770100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2043,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9645200</v>
+        <v>10233700</v>
       </c>
       <c r="E57" s="3">
-        <v>10084200</v>
+        <v>9219400</v>
       </c>
       <c r="F57" s="3">
-        <v>9737900</v>
+        <v>9639000</v>
       </c>
       <c r="G57" s="3">
-        <v>8963200</v>
+        <v>9308000</v>
       </c>
       <c r="H57" s="3">
-        <v>8210800</v>
+        <v>8567500</v>
       </c>
       <c r="I57" s="3">
-        <v>8315300</v>
+        <v>7848300</v>
       </c>
       <c r="J57" s="3">
+        <v>7948200</v>
+      </c>
+      <c r="K57" s="3">
         <v>7943200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9044200</v>
+        <v>3321100</v>
       </c>
       <c r="E58" s="3">
-        <v>6191800</v>
+        <v>8644900</v>
       </c>
       <c r="F58" s="3">
-        <v>5143600</v>
+        <v>5918500</v>
       </c>
       <c r="G58" s="3">
-        <v>5903100</v>
+        <v>4916600</v>
       </c>
       <c r="H58" s="3">
-        <v>4157600</v>
+        <v>5642500</v>
       </c>
       <c r="I58" s="3">
-        <v>3117600</v>
+        <v>3974100</v>
       </c>
       <c r="J58" s="3">
+        <v>2980000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6855100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8516000</v>
+        <v>8629200</v>
       </c>
       <c r="E59" s="3">
-        <v>7852800</v>
+        <v>8140000</v>
       </c>
       <c r="F59" s="3">
-        <v>8616900</v>
+        <v>7506100</v>
       </c>
       <c r="G59" s="3">
-        <v>8189700</v>
+        <v>8236500</v>
       </c>
       <c r="H59" s="3">
-        <v>8034700</v>
+        <v>7828100</v>
       </c>
       <c r="I59" s="3">
-        <v>7130900</v>
+        <v>7680000</v>
       </c>
       <c r="J59" s="3">
+        <v>6816100</v>
+      </c>
+      <c r="K59" s="3">
         <v>6247000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27205400</v>
+        <v>22184000</v>
       </c>
       <c r="E60" s="3">
-        <v>24128800</v>
+        <v>26004400</v>
       </c>
       <c r="F60" s="3">
-        <v>23498500</v>
+        <v>23063600</v>
       </c>
       <c r="G60" s="3">
-        <v>23056000</v>
+        <v>22461100</v>
       </c>
       <c r="H60" s="3">
-        <v>20403200</v>
+        <v>22038100</v>
       </c>
       <c r="I60" s="3">
-        <v>18563800</v>
+        <v>19502400</v>
       </c>
       <c r="J60" s="3">
+        <v>17744300</v>
+      </c>
+      <c r="K60" s="3">
         <v>21045200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18930000</v>
+        <v>23980300</v>
       </c>
       <c r="E61" s="3">
-        <v>13070400</v>
+        <v>18094300</v>
       </c>
       <c r="F61" s="3">
-        <v>11324900</v>
+        <v>12493400</v>
       </c>
       <c r="G61" s="3">
-        <v>8128600</v>
+        <v>10825000</v>
       </c>
       <c r="H61" s="3">
-        <v>8675600</v>
+        <v>7769800</v>
       </c>
       <c r="I61" s="3">
-        <v>8879900</v>
+        <v>8292600</v>
       </c>
       <c r="J61" s="3">
+        <v>8487900</v>
+      </c>
+      <c r="K61" s="3">
         <v>9247300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7740100</v>
+        <v>6753300</v>
       </c>
       <c r="E62" s="3">
-        <v>9106400</v>
+        <v>7398400</v>
       </c>
       <c r="F62" s="3">
-        <v>7687300</v>
+        <v>8704400</v>
       </c>
       <c r="G62" s="3">
-        <v>8447900</v>
+        <v>7347900</v>
       </c>
       <c r="H62" s="3">
-        <v>6954800</v>
+        <v>8075000</v>
       </c>
       <c r="I62" s="3">
-        <v>8298800</v>
+        <v>6647800</v>
       </c>
       <c r="J62" s="3">
+        <v>7932500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7963100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54765300</v>
+        <v>53725400</v>
       </c>
       <c r="E66" s="3">
-        <v>47040400</v>
+        <v>52347600</v>
       </c>
       <c r="F66" s="3">
-        <v>43265500</v>
+        <v>44963700</v>
       </c>
       <c r="G66" s="3">
-        <v>40350900</v>
+        <v>41355400</v>
       </c>
       <c r="H66" s="3">
-        <v>36586500</v>
+        <v>38569500</v>
       </c>
       <c r="I66" s="3">
-        <v>36396300</v>
+        <v>34971300</v>
       </c>
       <c r="J66" s="3">
+        <v>34789500</v>
+      </c>
+      <c r="K66" s="3">
         <v>38992800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31109500</v>
+        <v>29392800</v>
       </c>
       <c r="E72" s="3">
-        <v>27245300</v>
+        <v>29736100</v>
       </c>
       <c r="F72" s="3">
-        <v>26374300</v>
+        <v>26042500</v>
       </c>
       <c r="G72" s="3">
-        <v>23957500</v>
+        <v>25210000</v>
       </c>
       <c r="H72" s="3">
-        <v>24063100</v>
+        <v>22899800</v>
       </c>
       <c r="I72" s="3">
-        <v>17061300</v>
+        <v>23000800</v>
       </c>
       <c r="J72" s="3">
+        <v>16308100</v>
+      </c>
+      <c r="K72" s="3">
         <v>16048300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15997900</v>
+        <v>12983700</v>
       </c>
       <c r="E76" s="3">
-        <v>19196500</v>
+        <v>15291600</v>
       </c>
       <c r="F76" s="3">
-        <v>18122500</v>
+        <v>18349000</v>
       </c>
       <c r="G76" s="3">
-        <v>16023700</v>
+        <v>17322400</v>
       </c>
       <c r="H76" s="3">
-        <v>16837100</v>
+        <v>15316300</v>
       </c>
       <c r="I76" s="3">
-        <v>17793800</v>
+        <v>16093800</v>
       </c>
       <c r="J76" s="3">
+        <v>17008200</v>
+      </c>
+      <c r="K76" s="3">
         <v>16777300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7105100</v>
+        <v>10534400</v>
       </c>
       <c r="E81" s="3">
-        <v>6085000</v>
+        <v>6791400</v>
       </c>
       <c r="F81" s="3">
-        <v>5762200</v>
+        <v>5816400</v>
       </c>
       <c r="G81" s="3">
-        <v>6069800</v>
+        <v>5507800</v>
       </c>
       <c r="H81" s="3">
-        <v>5683600</v>
+        <v>5801800</v>
       </c>
       <c r="I81" s="3">
-        <v>5127200</v>
+        <v>5432700</v>
       </c>
       <c r="J81" s="3">
+        <v>4900900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4836100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1805300</v>
+        <v>1960100</v>
       </c>
       <c r="E83" s="3">
-        <v>1718500</v>
+        <v>1725600</v>
       </c>
       <c r="F83" s="3">
-        <v>1608100</v>
+        <v>1642600</v>
       </c>
       <c r="G83" s="3">
-        <v>1680900</v>
+        <v>1537100</v>
       </c>
       <c r="H83" s="3">
-        <v>1351100</v>
+        <v>1606700</v>
       </c>
       <c r="I83" s="3">
-        <v>1407400</v>
+        <v>1291400</v>
       </c>
       <c r="J83" s="3">
+        <v>1345300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1207900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8559400</v>
+        <v>7576800</v>
       </c>
       <c r="E89" s="3">
-        <v>8271800</v>
+        <v>8181600</v>
       </c>
       <c r="F89" s="3">
-        <v>8604000</v>
+        <v>7906700</v>
       </c>
       <c r="G89" s="3">
-        <v>6506400</v>
+        <v>8224200</v>
       </c>
       <c r="H89" s="3">
-        <v>7388000</v>
+        <v>6219200</v>
       </c>
       <c r="I89" s="3">
-        <v>8024200</v>
+        <v>7061800</v>
       </c>
       <c r="J89" s="3">
+        <v>7669900</v>
+      </c>
+      <c r="K89" s="3">
         <v>6399600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1956700</v>
+        <v>-1491100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2389900</v>
+        <v>-1693100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2583600</v>
+        <v>-2024100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2643400</v>
+        <v>-2094800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2544800</v>
+        <v>-2123900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2793700</v>
+        <v>-2009500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2215900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2463800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6900800</v>
+        <v>5210500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3742100</v>
+        <v>-6596200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4154100</v>
+        <v>-3576900</v>
       </c>
       <c r="G94" s="3">
-        <v>-400300</v>
+        <v>-3970700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1362800</v>
+        <v>-382600</v>
       </c>
       <c r="I94" s="3">
-        <v>-886200</v>
+        <v>-1302600</v>
       </c>
       <c r="J94" s="3">
+        <v>-847100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5243400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4596600</v>
+        <v>-4562000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4236300</v>
+        <v>-4393700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3910000</v>
+        <v>-4049300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3743300</v>
+        <v>-3737300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3513200</v>
+        <v>-3578000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3168100</v>
+        <v>-3358100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3028300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2916900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1682100</v>
+        <v>-12956700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3607100</v>
+        <v>-1607800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3559000</v>
+        <v>-3447900</v>
       </c>
       <c r="G100" s="3">
-        <v>-6092100</v>
+        <v>-3401900</v>
       </c>
       <c r="H100" s="3">
-        <v>-6326800</v>
+        <v>-5823100</v>
       </c>
       <c r="I100" s="3">
-        <v>-7773000</v>
+        <v>-6047500</v>
       </c>
       <c r="J100" s="3">
+        <v>-7429800</v>
+      </c>
+      <c r="K100" s="3">
         <v>482400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10600</v>
+        <v>80800</v>
       </c>
       <c r="E101" s="3">
-        <v>333400</v>
+        <v>-10100</v>
       </c>
       <c r="F101" s="3">
-        <v>-635000</v>
+        <v>318600</v>
       </c>
       <c r="G101" s="3">
-        <v>-171400</v>
+        <v>-607000</v>
       </c>
       <c r="H101" s="3">
-        <v>98600</v>
+        <v>-163800</v>
       </c>
       <c r="I101" s="3">
-        <v>-258200</v>
+        <v>94200</v>
       </c>
       <c r="J101" s="3">
+        <v>-246800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-450700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34000</v>
+        <v>-88600</v>
       </c>
       <c r="E102" s="3">
-        <v>1256000</v>
+        <v>-32500</v>
       </c>
       <c r="F102" s="3">
-        <v>255900</v>
+        <v>1200500</v>
       </c>
       <c r="G102" s="3">
-        <v>-157300</v>
+        <v>244600</v>
       </c>
       <c r="H102" s="3">
-        <v>-203100</v>
+        <v>-150300</v>
       </c>
       <c r="I102" s="3">
-        <v>-893300</v>
+        <v>-194100</v>
       </c>
       <c r="J102" s="3">
+        <v>-853800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1187900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/UN_YR_FIN.xlsx
+++ b/Financials/Yearly/UN_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7AA760-DEE1-407B-9DB3-73B2129D24E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="UN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>UN</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,97 +710,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57201300</v>
+        <v>55978200</v>
       </c>
       <c r="E8" s="3">
-        <v>60267700</v>
+        <v>58979100</v>
       </c>
       <c r="F8" s="3">
-        <v>59143500</v>
+        <v>57878900</v>
       </c>
       <c r="G8" s="3">
-        <v>59770700</v>
+        <v>58492700</v>
       </c>
       <c r="H8" s="3">
-        <v>54344700</v>
+        <v>53182700</v>
       </c>
       <c r="I8" s="3">
-        <v>55871700</v>
+        <v>54677100</v>
       </c>
       <c r="J8" s="3">
-        <v>57585000</v>
+        <v>56353800</v>
       </c>
       <c r="K8" s="3">
         <v>54543400</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28802600</v>
+        <v>28186800</v>
       </c>
       <c r="E9" s="3">
-        <v>30637100</v>
+        <v>29982000</v>
       </c>
       <c r="F9" s="3">
-        <v>30274700</v>
+        <v>29627300</v>
       </c>
       <c r="G9" s="3">
-        <v>30798600</v>
+        <v>30140100</v>
       </c>
       <c r="H9" s="3">
-        <v>31849900</v>
+        <v>31168900</v>
       </c>
       <c r="I9" s="3">
-        <v>32610600</v>
+        <v>31913400</v>
       </c>
       <c r="J9" s="3">
-        <v>34448500</v>
+        <v>33711900</v>
       </c>
       <c r="K9" s="3">
         <v>32784500</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28398700</v>
+        <v>27791500</v>
       </c>
       <c r="E10" s="3">
-        <v>29630600</v>
+        <v>28997100</v>
       </c>
       <c r="F10" s="3">
-        <v>28868800</v>
+        <v>28251500</v>
       </c>
       <c r="G10" s="3">
-        <v>28972000</v>
+        <v>28352600</v>
       </c>
       <c r="H10" s="3">
-        <v>22494800</v>
+        <v>22013800</v>
       </c>
       <c r="I10" s="3">
-        <v>23261100</v>
+        <v>22763700</v>
       </c>
       <c r="J10" s="3">
-        <v>23136600</v>
+        <v>22641900</v>
       </c>
       <c r="K10" s="3">
         <v>21758900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,27 +814,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1009800</v>
+        <v>988200</v>
       </c>
       <c r="E12" s="3">
-        <v>1009800</v>
+        <v>988200</v>
       </c>
       <c r="F12" s="3">
-        <v>1097300</v>
+        <v>1073800</v>
       </c>
       <c r="G12" s="3">
-        <v>1127600</v>
+        <v>1103500</v>
       </c>
       <c r="H12" s="3">
-        <v>1071500</v>
+        <v>1048600</v>
       </c>
       <c r="I12" s="3">
-        <v>1166900</v>
+        <v>1141900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,37 +874,37 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3736200</v>
+        <v>-3656300</v>
       </c>
       <c r="E14" s="3">
-        <v>1037800</v>
+        <v>1015700</v>
       </c>
       <c r="F14" s="3">
-        <v>-274900</v>
+        <v>-269000</v>
       </c>
       <c r="G14" s="3">
-        <v>-392700</v>
+        <v>-384300</v>
       </c>
       <c r="H14" s="3">
-        <v>1077100</v>
+        <v>1054100</v>
       </c>
       <c r="I14" s="3">
-        <v>562100</v>
+        <v>550100</v>
       </c>
       <c r="J14" s="3">
-        <v>-81900</v>
+        <v>-80200</v>
       </c>
       <c r="K14" s="3">
         <v>-169000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -969,7 +934,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,67 +945,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42964400</v>
+        <v>41931500</v>
       </c>
       <c r="E17" s="3">
-        <v>50758800</v>
+        <v>49673500</v>
       </c>
       <c r="F17" s="3">
-        <v>50390800</v>
+        <v>49313400</v>
       </c>
       <c r="G17" s="3">
-        <v>51338900</v>
+        <v>50241200</v>
       </c>
       <c r="H17" s="3">
-        <v>45391200</v>
+        <v>44420700</v>
       </c>
       <c r="I17" s="3">
-        <v>47437700</v>
+        <v>46423400</v>
       </c>
       <c r="J17" s="3">
-        <v>49756900</v>
+        <v>48693000</v>
       </c>
       <c r="K17" s="3">
         <v>47007600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14236900</v>
+        <v>14046700</v>
       </c>
       <c r="E18" s="3">
-        <v>9508900</v>
+        <v>9305600</v>
       </c>
       <c r="F18" s="3">
-        <v>8752600</v>
+        <v>8565500</v>
       </c>
       <c r="G18" s="3">
-        <v>8431800</v>
+        <v>8251500</v>
       </c>
       <c r="H18" s="3">
-        <v>8953500</v>
+        <v>8762000</v>
       </c>
       <c r="I18" s="3">
-        <v>8434000</v>
+        <v>8253700</v>
       </c>
       <c r="J18" s="3">
-        <v>7828100</v>
+        <v>7660700</v>
       </c>
       <c r="K18" s="3">
         <v>7535900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,157 +1019,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>334400</v>
+        <v>187800</v>
       </c>
       <c r="E20" s="3">
-        <v>277100</v>
+        <v>271200</v>
       </c>
       <c r="F20" s="3">
-        <v>269300</v>
+        <v>263500</v>
       </c>
       <c r="G20" s="3">
-        <v>288400</v>
+        <v>282200</v>
       </c>
       <c r="H20" s="3">
-        <v>170500</v>
+        <v>166900</v>
       </c>
       <c r="I20" s="3">
-        <v>105500</v>
+        <v>103200</v>
       </c>
       <c r="J20" s="3">
-        <v>673200</v>
+        <v>658800</v>
       </c>
       <c r="K20" s="3">
         <v>836900</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16536100</v>
+        <v>16155600</v>
       </c>
       <c r="E21" s="3">
-        <v>11515800</v>
+        <v>11268100</v>
       </c>
       <c r="F21" s="3">
-        <v>10668500</v>
+        <v>10439000</v>
       </c>
       <c r="G21" s="3">
-        <v>10260900</v>
+        <v>10040200</v>
       </c>
       <c r="H21" s="3">
-        <v>10734600</v>
+        <v>10503700</v>
       </c>
       <c r="I21" s="3">
-        <v>9834000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9849800</v>
+        <v>9622600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>9581500</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>677700</v>
+        <v>663200</v>
       </c>
       <c r="E22" s="3">
-        <v>638400</v>
+        <v>624800</v>
       </c>
       <c r="F22" s="3">
-        <v>641800</v>
+        <v>628100</v>
       </c>
       <c r="G22" s="3">
-        <v>619300</v>
+        <v>606100</v>
       </c>
       <c r="H22" s="3">
-        <v>545300</v>
+        <v>533600</v>
       </c>
       <c r="I22" s="3">
-        <v>557600</v>
+        <v>545700</v>
       </c>
       <c r="J22" s="3">
-        <v>1171400</v>
+        <v>1146300</v>
       </c>
       <c r="K22" s="3">
         <v>1252500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13893600</v>
+        <v>13571300</v>
       </c>
       <c r="E23" s="3">
-        <v>9147600</v>
+        <v>8952000</v>
       </c>
       <c r="F23" s="3">
-        <v>8380100</v>
+        <v>8201000</v>
       </c>
       <c r="G23" s="3">
-        <v>8100800</v>
+        <v>7927600</v>
       </c>
       <c r="H23" s="3">
-        <v>8578700</v>
+        <v>8395300</v>
       </c>
       <c r="I23" s="3">
-        <v>7981800</v>
+        <v>7811200</v>
       </c>
       <c r="J23" s="3">
-        <v>7330000</v>
+        <v>7173200</v>
       </c>
       <c r="K23" s="3">
         <v>7120300</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2856600</v>
+        <v>2792200</v>
       </c>
       <c r="E24" s="3">
-        <v>2518900</v>
+        <v>2465000</v>
       </c>
       <c r="F24" s="3">
-        <v>2156500</v>
+        <v>2110400</v>
       </c>
       <c r="G24" s="3">
-        <v>2200200</v>
+        <v>2153200</v>
       </c>
       <c r="H24" s="3">
-        <v>2391000</v>
+        <v>2339800</v>
       </c>
       <c r="I24" s="3">
-        <v>2076800</v>
+        <v>2032400</v>
       </c>
       <c r="J24" s="3">
-        <v>1904000</v>
+        <v>1863300</v>
       </c>
       <c r="K24" s="3">
         <v>1848800</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,67 +1199,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11037000</v>
+        <v>10779100</v>
       </c>
       <c r="E26" s="3">
-        <v>6628700</v>
+        <v>6487000</v>
       </c>
       <c r="F26" s="3">
-        <v>6223700</v>
+        <v>6090600</v>
       </c>
       <c r="G26" s="3">
-        <v>5900500</v>
+        <v>5774400</v>
       </c>
       <c r="H26" s="3">
-        <v>6187800</v>
+        <v>6055500</v>
       </c>
       <c r="I26" s="3">
-        <v>5905000</v>
+        <v>5778800</v>
       </c>
       <c r="J26" s="3">
-        <v>5425900</v>
+        <v>5309900</v>
       </c>
       <c r="K26" s="3">
         <v>5271600</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10566900</v>
+        <v>10319000</v>
       </c>
       <c r="E27" s="3">
-        <v>6142900</v>
+        <v>6011600</v>
       </c>
       <c r="F27" s="3">
-        <v>5816400</v>
+        <v>5692000</v>
       </c>
       <c r="G27" s="3">
-        <v>5507800</v>
+        <v>5390100</v>
       </c>
       <c r="H27" s="3">
-        <v>5801800</v>
+        <v>5677800</v>
       </c>
       <c r="I27" s="3">
-        <v>5432700</v>
+        <v>5316500</v>
       </c>
       <c r="J27" s="3">
-        <v>4900900</v>
+        <v>4796100</v>
       </c>
       <c r="K27" s="3">
         <v>4836100</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,15 +1289,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-32500</v>
+        <v>-31800</v>
       </c>
       <c r="E29" s="3">
-        <v>648500</v>
+        <v>634600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1354,7 +1319,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,67 +1379,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-334400</v>
+        <v>-187800</v>
       </c>
       <c r="E32" s="3">
-        <v>-277100</v>
+        <v>-271200</v>
       </c>
       <c r="F32" s="3">
-        <v>-269300</v>
+        <v>-263500</v>
       </c>
       <c r="G32" s="3">
-        <v>-288400</v>
+        <v>-282200</v>
       </c>
       <c r="H32" s="3">
-        <v>-170500</v>
+        <v>-166900</v>
       </c>
       <c r="I32" s="3">
-        <v>-105500</v>
+        <v>-103200</v>
       </c>
       <c r="J32" s="3">
-        <v>-673200</v>
+        <v>-658800</v>
       </c>
       <c r="K32" s="3">
         <v>-836900</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10534400</v>
+        <v>10287200</v>
       </c>
       <c r="E33" s="3">
-        <v>6791400</v>
+        <v>6646200</v>
       </c>
       <c r="F33" s="3">
-        <v>5816400</v>
+        <v>5692000</v>
       </c>
       <c r="G33" s="3">
-        <v>5507800</v>
+        <v>5390100</v>
       </c>
       <c r="H33" s="3">
-        <v>5801800</v>
+        <v>5677800</v>
       </c>
       <c r="I33" s="3">
-        <v>5432700</v>
+        <v>5316500</v>
       </c>
       <c r="J33" s="3">
-        <v>4900900</v>
+        <v>4796100</v>
       </c>
       <c r="K33" s="3">
         <v>4836100</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,42 +1469,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10534400</v>
+        <v>10287200</v>
       </c>
       <c r="E35" s="3">
-        <v>6791400</v>
+        <v>6646200</v>
       </c>
       <c r="F35" s="3">
-        <v>5816400</v>
+        <v>5692000</v>
       </c>
       <c r="G35" s="3">
-        <v>5507800</v>
+        <v>5390100</v>
       </c>
       <c r="H35" s="3">
-        <v>5801800</v>
+        <v>5677800</v>
       </c>
       <c r="I35" s="3">
-        <v>5432700</v>
+        <v>5316500</v>
       </c>
       <c r="J35" s="3">
-        <v>4900900</v>
+        <v>4796100</v>
       </c>
       <c r="K35" s="3">
         <v>4836100</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,277 +1562,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3624000</v>
+        <v>7093100</v>
       </c>
       <c r="E41" s="3">
-        <v>3721600</v>
+        <v>3642100</v>
       </c>
       <c r="F41" s="3">
-        <v>3794600</v>
+        <v>3713400</v>
       </c>
       <c r="G41" s="3">
-        <v>2582800</v>
+        <v>2527600</v>
       </c>
       <c r="H41" s="3">
-        <v>2413400</v>
+        <v>2361800</v>
       </c>
       <c r="I41" s="3">
-        <v>2563700</v>
+        <v>2508900</v>
       </c>
       <c r="J41" s="3">
-        <v>1088300</v>
+        <v>1065100</v>
       </c>
       <c r="K41" s="3">
         <v>1456700</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1006400</v>
+        <v>1944600</v>
       </c>
       <c r="E42" s="3">
-        <v>674300</v>
+        <v>659900</v>
       </c>
       <c r="F42" s="3">
-        <v>629400</v>
+        <v>616000</v>
       </c>
       <c r="G42" s="3">
-        <v>803300</v>
+        <v>786200</v>
       </c>
       <c r="H42" s="3">
-        <v>559900</v>
+        <v>547900</v>
       </c>
       <c r="I42" s="3">
-        <v>978400</v>
+        <v>957500</v>
       </c>
       <c r="J42" s="3">
-        <v>2125000</v>
+        <v>2079600</v>
       </c>
       <c r="K42" s="3">
         <v>3246800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6692700</v>
+        <v>13666800</v>
       </c>
       <c r="E43" s="3">
-        <v>5894900</v>
+        <v>5768900</v>
       </c>
       <c r="F43" s="3">
-        <v>5303600</v>
+        <v>5190200</v>
       </c>
       <c r="G43" s="3">
-        <v>3832700</v>
+        <v>3750800</v>
       </c>
       <c r="H43" s="3">
-        <v>5077000</v>
+        <v>4968500</v>
       </c>
       <c r="I43" s="3">
-        <v>4537300</v>
+        <v>4440300</v>
       </c>
       <c r="J43" s="3">
-        <v>4363400</v>
+        <v>4270100</v>
       </c>
       <c r="K43" s="3">
         <v>5695300</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4825700</v>
+        <v>9445000</v>
       </c>
       <c r="E44" s="3">
-        <v>4445300</v>
+        <v>4350300</v>
       </c>
       <c r="F44" s="3">
-        <v>4799900</v>
+        <v>4697200</v>
       </c>
       <c r="G44" s="3">
-        <v>4863800</v>
+        <v>4759800</v>
       </c>
       <c r="H44" s="3">
-        <v>4676500</v>
+        <v>4576500</v>
       </c>
       <c r="I44" s="3">
-        <v>4417300</v>
+        <v>4322800</v>
       </c>
       <c r="J44" s="3">
-        <v>4977100</v>
+        <v>4870700</v>
       </c>
       <c r="K44" s="3">
         <v>5400700</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1220700</v>
+        <v>1194600</v>
       </c>
       <c r="E45" s="3">
-        <v>4318500</v>
+        <v>4226200</v>
       </c>
       <c r="F45" s="3">
-        <v>1050200</v>
+        <v>1027700</v>
       </c>
       <c r="G45" s="3">
-        <v>2150900</v>
+        <v>2104900</v>
       </c>
       <c r="H45" s="3">
-        <v>1126500</v>
+        <v>1102400</v>
       </c>
       <c r="I45" s="3">
-        <v>1104000</v>
+        <v>1080400</v>
       </c>
       <c r="J45" s="3">
-        <v>1074900</v>
+        <v>1051900</v>
       </c>
       <c r="K45" s="3">
         <v>975400</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17369500</v>
+        <v>16994800</v>
       </c>
       <c r="E46" s="3">
-        <v>19054800</v>
+        <v>18647300</v>
       </c>
       <c r="F46" s="3">
-        <v>15577700</v>
+        <v>15244600</v>
       </c>
       <c r="G46" s="3">
-        <v>14233600</v>
+        <v>13929200</v>
       </c>
       <c r="H46" s="3">
-        <v>13853200</v>
+        <v>13557000</v>
       </c>
       <c r="I46" s="3">
-        <v>13600800</v>
+        <v>13310000</v>
       </c>
       <c r="J46" s="3">
-        <v>13628800</v>
+        <v>13337400</v>
       </c>
       <c r="K46" s="3">
         <v>16774900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1294800</v>
+        <v>1972000</v>
       </c>
       <c r="E47" s="3">
-        <v>1233100</v>
+        <v>1206700</v>
       </c>
       <c r="F47" s="3">
-        <v>1503500</v>
+        <v>1471300</v>
       </c>
       <c r="G47" s="3">
-        <v>1490000</v>
+        <v>1458100</v>
       </c>
       <c r="H47" s="3">
-        <v>1492200</v>
+        <v>1460300</v>
       </c>
       <c r="I47" s="3">
-        <v>1160100</v>
+        <v>1135300</v>
       </c>
       <c r="J47" s="3">
-        <v>886400</v>
+        <v>867400</v>
       </c>
       <c r="K47" s="3">
         <v>871000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11629400</v>
+        <v>24653400</v>
       </c>
       <c r="E48" s="3">
-        <v>11700100</v>
+        <v>11449900</v>
       </c>
       <c r="F48" s="3">
-        <v>13154200</v>
+        <v>12873000</v>
       </c>
       <c r="G48" s="3">
-        <v>12460800</v>
+        <v>12194400</v>
       </c>
       <c r="H48" s="3">
-        <v>11796600</v>
+        <v>11544400</v>
       </c>
       <c r="I48" s="3">
-        <v>10522000</v>
+        <v>10297000</v>
       </c>
       <c r="J48" s="3">
-        <v>10629700</v>
+        <v>10402500</v>
       </c>
       <c r="K48" s="3">
         <v>10336600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33090900</v>
+        <v>64766600</v>
       </c>
       <c r="E49" s="3">
-        <v>31865600</v>
+        <v>31184300</v>
       </c>
       <c r="F49" s="3">
-        <v>30779600</v>
+        <v>30121400</v>
       </c>
       <c r="G49" s="3">
-        <v>28115900</v>
+        <v>27514800</v>
       </c>
       <c r="H49" s="3">
-        <v>24879000</v>
+        <v>24347100</v>
       </c>
       <c r="I49" s="3">
-        <v>23454100</v>
+        <v>22952600</v>
       </c>
       <c r="J49" s="3">
-        <v>24367400</v>
+        <v>23846400</v>
       </c>
       <c r="K49" s="3">
         <v>25721700</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,37 +1892,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3324500</v>
+        <v>3873700</v>
       </c>
       <c r="E52" s="3">
-        <v>3785600</v>
+        <v>3704700</v>
       </c>
       <c r="F52" s="3">
-        <v>2297800</v>
+        <v>2248700</v>
       </c>
       <c r="G52" s="3">
-        <v>2377500</v>
+        <v>2326700</v>
       </c>
       <c r="H52" s="3">
-        <v>1864700</v>
+        <v>1824900</v>
       </c>
       <c r="I52" s="3">
-        <v>2328100</v>
+        <v>2278400</v>
       </c>
       <c r="J52" s="3">
-        <v>2285500</v>
+        <v>2236600</v>
       </c>
       <c r="K52" s="3">
         <v>2065900</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,37 +1952,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66709000</v>
+        <v>67099900</v>
       </c>
       <c r="E54" s="3">
-        <v>67639200</v>
+        <v>66192900</v>
       </c>
       <c r="F54" s="3">
-        <v>63312800</v>
+        <v>61959000</v>
       </c>
       <c r="G54" s="3">
-        <v>58677800</v>
+        <v>57423200</v>
       </c>
       <c r="H54" s="3">
-        <v>53885800</v>
+        <v>52733600</v>
       </c>
       <c r="I54" s="3">
-        <v>51065100</v>
+        <v>49973300</v>
       </c>
       <c r="J54" s="3">
-        <v>51797800</v>
+        <v>50690300</v>
       </c>
       <c r="K54" s="3">
         <v>55770100</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,187 +2010,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10233700</v>
+        <v>25888600</v>
       </c>
       <c r="E57" s="3">
-        <v>9219400</v>
+        <v>9022300</v>
       </c>
       <c r="F57" s="3">
-        <v>9639000</v>
+        <v>9432900</v>
       </c>
       <c r="G57" s="3">
-        <v>9308000</v>
+        <v>9109000</v>
       </c>
       <c r="H57" s="3">
-        <v>8567500</v>
+        <v>8384300</v>
       </c>
       <c r="I57" s="3">
-        <v>7848300</v>
+        <v>7680500</v>
       </c>
       <c r="J57" s="3">
-        <v>7948200</v>
+        <v>7778200</v>
       </c>
       <c r="K57" s="3">
         <v>7943200</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3321100</v>
+        <v>7217200</v>
       </c>
       <c r="E58" s="3">
-        <v>8644900</v>
+        <v>8460100</v>
       </c>
       <c r="F58" s="3">
-        <v>5918500</v>
+        <v>5792000</v>
       </c>
       <c r="G58" s="3">
-        <v>4916600</v>
+        <v>4811400</v>
       </c>
       <c r="H58" s="3">
-        <v>5642500</v>
+        <v>5521800</v>
       </c>
       <c r="I58" s="3">
-        <v>3974100</v>
+        <v>3889100</v>
       </c>
       <c r="J58" s="3">
-        <v>2980000</v>
+        <v>2916300</v>
       </c>
       <c r="K58" s="3">
         <v>6855100</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8629200</v>
+        <v>8444700</v>
       </c>
       <c r="E59" s="3">
-        <v>8140000</v>
+        <v>7966000</v>
       </c>
       <c r="F59" s="3">
-        <v>7506100</v>
+        <v>7345600</v>
       </c>
       <c r="G59" s="3">
-        <v>8236500</v>
+        <v>8060400</v>
       </c>
       <c r="H59" s="3">
-        <v>7828100</v>
+        <v>7660700</v>
       </c>
       <c r="I59" s="3">
-        <v>7680000</v>
+        <v>7515800</v>
       </c>
       <c r="J59" s="3">
-        <v>6816100</v>
+        <v>6670400</v>
       </c>
       <c r="K59" s="3">
         <v>6247000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22184000</v>
+        <v>22124700</v>
       </c>
       <c r="E60" s="3">
-        <v>26004400</v>
+        <v>25448300</v>
       </c>
       <c r="F60" s="3">
-        <v>23063600</v>
+        <v>22570500</v>
       </c>
       <c r="G60" s="3">
-        <v>22461100</v>
+        <v>21980900</v>
       </c>
       <c r="H60" s="3">
-        <v>22038100</v>
+        <v>21566900</v>
       </c>
       <c r="I60" s="3">
-        <v>19502400</v>
+        <v>19085400</v>
       </c>
       <c r="J60" s="3">
-        <v>17744300</v>
+        <v>17364900</v>
       </c>
       <c r="K60" s="3">
         <v>21045200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23980300</v>
+        <v>25391300</v>
       </c>
       <c r="E61" s="3">
-        <v>18094300</v>
+        <v>17707400</v>
       </c>
       <c r="F61" s="3">
-        <v>12493400</v>
+        <v>12226200</v>
       </c>
       <c r="G61" s="3">
-        <v>10825000</v>
+        <v>10593500</v>
       </c>
       <c r="H61" s="3">
-        <v>7769800</v>
+        <v>7603700</v>
       </c>
       <c r="I61" s="3">
-        <v>8292600</v>
+        <v>8115300</v>
       </c>
       <c r="J61" s="3">
-        <v>8487900</v>
+        <v>8306400</v>
       </c>
       <c r="K61" s="3">
         <v>9247300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6753300</v>
+        <v>6963500</v>
       </c>
       <c r="E62" s="3">
-        <v>7398400</v>
+        <v>7240200</v>
       </c>
       <c r="F62" s="3">
-        <v>8704400</v>
+        <v>8518300</v>
       </c>
       <c r="G62" s="3">
-        <v>7347900</v>
+        <v>7190800</v>
       </c>
       <c r="H62" s="3">
-        <v>8075000</v>
+        <v>7902300</v>
       </c>
       <c r="I62" s="3">
-        <v>6647800</v>
+        <v>6505700</v>
       </c>
       <c r="J62" s="3">
-        <v>7932500</v>
+        <v>7762900</v>
       </c>
       <c r="K62" s="3">
         <v>7963100</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,37 +2280,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53725400</v>
+        <v>54586000</v>
       </c>
       <c r="E66" s="3">
-        <v>52347600</v>
+        <v>51228300</v>
       </c>
       <c r="F66" s="3">
-        <v>44963700</v>
+        <v>44002400</v>
       </c>
       <c r="G66" s="3">
-        <v>41355400</v>
+        <v>40471200</v>
       </c>
       <c r="H66" s="3">
-        <v>38569500</v>
+        <v>37744800</v>
       </c>
       <c r="I66" s="3">
-        <v>34971300</v>
+        <v>34223600</v>
       </c>
       <c r="J66" s="3">
-        <v>34789500</v>
+        <v>34045700</v>
       </c>
       <c r="K66" s="3">
         <v>38992800</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,37 +2444,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29392800</v>
+        <v>11788100</v>
       </c>
       <c r="E72" s="3">
-        <v>29736100</v>
+        <v>29100300</v>
       </c>
       <c r="F72" s="3">
-        <v>26042500</v>
+        <v>25485700</v>
       </c>
       <c r="G72" s="3">
-        <v>25210000</v>
+        <v>24671000</v>
       </c>
       <c r="H72" s="3">
-        <v>22899800</v>
+        <v>22410200</v>
       </c>
       <c r="I72" s="3">
-        <v>23000800</v>
+        <v>22509000</v>
       </c>
       <c r="J72" s="3">
-        <v>16308100</v>
+        <v>15959400</v>
       </c>
       <c r="K72" s="3">
         <v>16048300</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,37 +2564,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12983700</v>
+        <v>12513900</v>
       </c>
       <c r="E76" s="3">
-        <v>15291600</v>
+        <v>14964600</v>
       </c>
       <c r="F76" s="3">
-        <v>18349000</v>
+        <v>17956700</v>
       </c>
       <c r="G76" s="3">
-        <v>17322400</v>
+        <v>16952000</v>
       </c>
       <c r="H76" s="3">
-        <v>15316300</v>
+        <v>14988800</v>
       </c>
       <c r="I76" s="3">
-        <v>16093800</v>
+        <v>15749700</v>
       </c>
       <c r="J76" s="3">
-        <v>17008200</v>
+        <v>16644600</v>
       </c>
       <c r="K76" s="3">
         <v>16777300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,37 +2659,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10534400</v>
+        <v>10287200</v>
       </c>
       <c r="E81" s="3">
-        <v>6791400</v>
+        <v>6646200</v>
       </c>
       <c r="F81" s="3">
-        <v>5816400</v>
+        <v>5692000</v>
       </c>
       <c r="G81" s="3">
-        <v>5507800</v>
+        <v>5390100</v>
       </c>
       <c r="H81" s="3">
-        <v>5801800</v>
+        <v>5677800</v>
       </c>
       <c r="I81" s="3">
-        <v>5432700</v>
+        <v>5316500</v>
       </c>
       <c r="J81" s="3">
-        <v>4900900</v>
+        <v>4796100</v>
       </c>
       <c r="K81" s="3">
         <v>4836100</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,37 +2703,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1960100</v>
+        <v>1918200</v>
       </c>
       <c r="E83" s="3">
-        <v>1725600</v>
+        <v>1688700</v>
       </c>
       <c r="F83" s="3">
-        <v>1642600</v>
+        <v>1607500</v>
       </c>
       <c r="G83" s="3">
-        <v>1537100</v>
+        <v>1504300</v>
       </c>
       <c r="H83" s="3">
-        <v>1606700</v>
+        <v>1572300</v>
       </c>
       <c r="I83" s="3">
-        <v>1291400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1345300</v>
+        <v>1263800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1207900</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,37 +2883,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7576800</v>
+        <v>7414800</v>
       </c>
       <c r="E89" s="3">
-        <v>8181600</v>
+        <v>8006600</v>
       </c>
       <c r="F89" s="3">
-        <v>7906700</v>
+        <v>7737600</v>
       </c>
       <c r="G89" s="3">
-        <v>8224200</v>
+        <v>8048300</v>
       </c>
       <c r="H89" s="3">
-        <v>6219200</v>
+        <v>6086200</v>
       </c>
       <c r="I89" s="3">
-        <v>7061800</v>
+        <v>6910800</v>
       </c>
       <c r="J89" s="3">
-        <v>7669900</v>
+        <v>7505900</v>
       </c>
       <c r="K89" s="3">
         <v>6399600</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,37 +2927,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1491100</v>
+        <v>-1459200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1693100</v>
+        <v>-1656900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2024100</v>
+        <v>-1980800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2094800</v>
+        <v>-2050000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2123900</v>
+        <v>-2078500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2009500</v>
+        <v>-1966500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2215900</v>
+        <v>-2168600</v>
       </c>
       <c r="K91" s="3">
         <v>-2463800</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,37 +3017,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5210500</v>
+        <v>5099100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6596200</v>
+        <v>-6455100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3576900</v>
+        <v>-3500400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3970700</v>
+        <v>-3885800</v>
       </c>
       <c r="H94" s="3">
-        <v>-382600</v>
+        <v>-374400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1302600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-847100</v>
+        <v>-1274800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-5243400</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,37 +3061,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4562000</v>
+        <v>-4464500</v>
       </c>
       <c r="E96" s="3">
-        <v>-4393700</v>
+        <v>-4299800</v>
       </c>
       <c r="F96" s="3">
-        <v>-4049300</v>
+        <v>-3962700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3737300</v>
+        <v>-3657400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3578000</v>
+        <v>-3501500</v>
       </c>
       <c r="I96" s="3">
-        <v>-3358100</v>
+        <v>-3286300</v>
       </c>
       <c r="J96" s="3">
-        <v>-3028300</v>
+        <v>-2963500</v>
       </c>
       <c r="K96" s="3">
         <v>-2916900</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,90 +3181,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12956700</v>
+        <v>-12679700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1607800</v>
+        <v>-1573400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3447900</v>
+        <v>-3374200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3401900</v>
+        <v>-3329100</v>
       </c>
       <c r="H100" s="3">
-        <v>-5823100</v>
+        <v>-5698600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6047500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-7429800</v>
+        <v>-5918200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>482400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>80800</v>
+        <v>79100</v>
       </c>
       <c r="E101" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="F101" s="3">
-        <v>318600</v>
+        <v>311800</v>
       </c>
       <c r="G101" s="3">
-        <v>-607000</v>
+        <v>-594000</v>
       </c>
       <c r="H101" s="3">
-        <v>-163800</v>
+        <v>-160300</v>
       </c>
       <c r="I101" s="3">
-        <v>94200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-246800</v>
+        <v>92200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-450700</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-88600</v>
+        <v>-86700</v>
       </c>
       <c r="E102" s="3">
-        <v>-32500</v>
+        <v>-31800</v>
       </c>
       <c r="F102" s="3">
-        <v>1200500</v>
+        <v>1174900</v>
       </c>
       <c r="G102" s="3">
-        <v>244600</v>
+        <v>239400</v>
       </c>
       <c r="H102" s="3">
-        <v>-150300</v>
+        <v>-147100</v>
       </c>
       <c r="I102" s="3">
-        <v>-194100</v>
+        <v>-190000</v>
       </c>
       <c r="J102" s="3">
-        <v>-853800</v>
+        <v>-835600</v>
       </c>
       <c r="K102" s="3">
         <v>1187900</v>
